--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\Desktop\32162\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\AraiKenta32162\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41012B77-C276-4967-8B68-7130AA26012E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701812F8-9823-484E-AA94-354B3CDAF8E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -671,6 +671,10 @@
     <rPh sb="0" eb="4">
       <t>アライケンタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1452,7 +1456,7 @@
   <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1706,7 +1710,9 @@
       <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>

--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\AraiKenta32162\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701812F8-9823-484E-AA94-354B3CDAF8E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4191EC4D-CE7C-4F90-B935-809B5D246605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -676,6 +676,9 @@
   <si>
     <t>OK</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1752,7 +1755,9 @@
       <c r="E16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="20"/>
       <c r="I16" s="21"/>
